--- a/Code/Results/Cases/Case_5_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_242/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9806184273800022</v>
+        <v>1.029585357532213</v>
       </c>
       <c r="D2">
-        <v>1.001851338113746</v>
+        <v>1.031965529203292</v>
       </c>
       <c r="E2">
-        <v>0.9892525085014694</v>
+        <v>1.02934604942493</v>
       </c>
       <c r="F2">
-        <v>0.989818761770778</v>
+        <v>1.038377287140346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03486772287934</v>
+        <v>1.031754744203483</v>
       </c>
       <c r="J2">
-        <v>1.00339470583605</v>
+        <v>1.034731317919554</v>
       </c>
       <c r="K2">
-        <v>1.013284940972597</v>
+        <v>1.034772123665848</v>
       </c>
       <c r="L2">
-        <v>1.000863631814649</v>
+        <v>1.032160227836086</v>
       </c>
       <c r="M2">
-        <v>1.001421783694111</v>
+        <v>1.041165493558144</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9880986650389869</v>
+        <v>1.0310575500719</v>
       </c>
       <c r="D3">
-        <v>1.007221969265683</v>
+        <v>1.033028217522837</v>
       </c>
       <c r="E3">
-        <v>0.9954545664839131</v>
+        <v>1.030613589053388</v>
       </c>
       <c r="F3">
-        <v>0.9975182318720974</v>
+        <v>1.039955187531475</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036906025223387</v>
+        <v>1.032068959609567</v>
       </c>
       <c r="J3">
-        <v>1.008919115679193</v>
+        <v>1.035841933759487</v>
       </c>
       <c r="K3">
-        <v>1.017763270149825</v>
+        <v>1.035642805629568</v>
       </c>
       <c r="L3">
-        <v>1.006145939271019</v>
+        <v>1.033234656961156</v>
       </c>
       <c r="M3">
-        <v>1.00818296618405</v>
+        <v>1.042551367157641</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9927897344013191</v>
+        <v>1.0320086449775</v>
       </c>
       <c r="D4">
-        <v>1.010592811236562</v>
+        <v>1.033714378219901</v>
       </c>
       <c r="E4">
-        <v>0.9993508000560934</v>
+        <v>1.03143268954541</v>
       </c>
       <c r="F4">
-        <v>1.002350784201068</v>
+        <v>1.040974837827389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038171380741897</v>
+        <v>1.032270253801178</v>
       </c>
       <c r="J4">
-        <v>1.012379695280195</v>
+        <v>1.036558705696557</v>
       </c>
       <c r="K4">
-        <v>1.020565049610097</v>
+        <v>1.036204136795907</v>
       </c>
       <c r="L4">
-        <v>1.009457066669287</v>
+        <v>1.033928259641451</v>
       </c>
       <c r="M4">
-        <v>1.012420919889056</v>
+        <v>1.043446286430386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947282105120587</v>
+        <v>1.03240813086359</v>
       </c>
       <c r="D5">
-        <v>1.011986262795334</v>
+        <v>1.034002492719051</v>
       </c>
       <c r="E5">
-        <v>1.000962342640739</v>
+        <v>1.031776785811581</v>
       </c>
       <c r="F5">
-        <v>1.004348667361202</v>
+        <v>1.041403182251292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038691090242213</v>
+        <v>1.032354395086768</v>
       </c>
       <c r="J5">
-        <v>1.013808683336634</v>
+        <v>1.036859594230037</v>
       </c>
       <c r="K5">
-        <v>1.021721117500139</v>
+        <v>1.036439631829919</v>
       </c>
       <c r="L5">
-        <v>1.010824857892121</v>
+        <v>1.034219466319082</v>
       </c>
       <c r="M5">
-        <v>1.014171599183</v>
+        <v>1.043822078907443</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.995051772423527</v>
+        <v>1.032475185738517</v>
       </c>
       <c r="D6">
-        <v>1.012218878961039</v>
+        <v>1.034050848163149</v>
       </c>
       <c r="E6">
-        <v>1.001231420391856</v>
+        <v>1.031834546379264</v>
       </c>
       <c r="F6">
-        <v>1.004682200217576</v>
+        <v>1.04147508484053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038777649502973</v>
+        <v>1.032368494519753</v>
       </c>
       <c r="J6">
-        <v>1.014047141927553</v>
+        <v>1.036910088955411</v>
       </c>
       <c r="K6">
-        <v>1.021913980508245</v>
+        <v>1.036479143951878</v>
       </c>
       <c r="L6">
-        <v>1.01105313450329</v>
+        <v>1.034268338837552</v>
       </c>
       <c r="M6">
-        <v>1.014463781118364</v>
+        <v>1.043885151023347</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9928157660476796</v>
+        <v>1.032013984310681</v>
       </c>
       <c r="D7">
-        <v>1.010611521867831</v>
+        <v>1.033718229379803</v>
       </c>
       <c r="E7">
-        <v>0.999372435476275</v>
+        <v>1.031437288366107</v>
       </c>
       <c r="F7">
-        <v>1.002377609909597</v>
+        <v>1.040980562620215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038178372517291</v>
+        <v>1.032271379995987</v>
       </c>
       <c r="J7">
-        <v>1.012398889167723</v>
+        <v>1.0365627279154</v>
       </c>
       <c r="K7">
-        <v>1.020580581217224</v>
+        <v>1.036207285406767</v>
       </c>
       <c r="L7">
-        <v>1.009475436540848</v>
+        <v>1.033932152261473</v>
       </c>
       <c r="M7">
-        <v>1.01244443187738</v>
+        <v>1.043451309474577</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9831785867969421</v>
+        <v>1.030083209567404</v>
       </c>
       <c r="D8">
-        <v>1.003688800536311</v>
+        <v>1.032324976662308</v>
       </c>
       <c r="E8">
-        <v>0.991373710303642</v>
+        <v>1.029774647846904</v>
       </c>
       <c r="F8">
-        <v>0.9924531003393579</v>
+        <v>1.038910831874038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035568030786951</v>
+        <v>1.031861354981383</v>
       </c>
       <c r="J8">
-        <v>1.005286255494242</v>
+        <v>1.035107046407274</v>
       </c>
       <c r="K8">
-        <v>1.014819035451086</v>
+        <v>1.035066803412009</v>
       </c>
       <c r="L8">
-        <v>1.00267181210399</v>
+        <v>1.032523675692274</v>
       </c>
       <c r="M8">
-        <v>1.003736279018436</v>
+        <v>1.041634240150849</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9649513104795975</v>
+        <v>1.026669015588568</v>
       </c>
       <c r="D9">
-        <v>0.9906250565811188</v>
+        <v>1.029858433108188</v>
       </c>
       <c r="E9">
-        <v>0.9763057831224251</v>
+        <v>1.026836323082767</v>
       </c>
       <c r="F9">
-        <v>0.9737157890771591</v>
+        <v>1.035252939656885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030529184871676</v>
+        <v>1.031123254302931</v>
       </c>
       <c r="J9">
-        <v>0.9918054714768835</v>
+        <v>1.032527375057895</v>
       </c>
       <c r="K9">
-        <v>1.003872089289186</v>
+        <v>1.033041176492793</v>
       </c>
       <c r="L9">
-        <v>0.9897953477887701</v>
+        <v>1.030029086613864</v>
       </c>
       <c r="M9">
-        <v>0.9872502076629407</v>
+        <v>1.038417956368884</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9517986895398581</v>
+        <v>1.02438439114048</v>
       </c>
       <c r="D10">
-        <v>0.9812296901430033</v>
+        <v>1.028206089816871</v>
       </c>
       <c r="E10">
-        <v>0.9654830592591419</v>
+        <v>1.024871346474502</v>
       </c>
       <c r="F10">
-        <v>0.9602193298625485</v>
+        <v>1.032806588049648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026828983407043</v>
+        <v>1.030620594051656</v>
       </c>
       <c r="J10">
-        <v>0.982064432187108</v>
+        <v>1.030797447820595</v>
       </c>
       <c r="K10">
-        <v>0.9959463252094568</v>
+        <v>1.031679768205416</v>
       </c>
       <c r="L10">
-        <v>0.9805048064209284</v>
+        <v>1.028357183384409</v>
       </c>
       <c r="M10">
-        <v>0.9753460059865595</v>
+        <v>1.036263635243923</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9458224386943375</v>
+        <v>1.023393001303178</v>
       </c>
       <c r="D11">
-        <v>0.9769709670099963</v>
+        <v>1.027488650881246</v>
       </c>
       <c r="E11">
-        <v>0.96057969383818</v>
+        <v>1.024018965605556</v>
       </c>
       <c r="F11">
-        <v>0.9540929511701296</v>
+        <v>1.03174533444322</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025133763615727</v>
+        <v>1.030400397988559</v>
       </c>
       <c r="J11">
-        <v>0.9776366553302671</v>
+        <v>1.030045885674649</v>
       </c>
       <c r="K11">
-        <v>0.9923406490333784</v>
+        <v>1.031087596895345</v>
       </c>
       <c r="L11">
-        <v>0.9762853819369979</v>
+        <v>1.027631060628078</v>
       </c>
       <c r="M11">
-        <v>0.9699358376481749</v>
+        <v>1.035328282748688</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9435560058059315</v>
+        <v>1.023024425284482</v>
       </c>
       <c r="D12">
-        <v>0.9753577179251771</v>
+        <v>1.02722186160669</v>
       </c>
       <c r="E12">
-        <v>0.958722506373158</v>
+        <v>1.023702116182853</v>
       </c>
       <c r="F12">
-        <v>0.9517705344130211</v>
+        <v>1.031350831929353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024488902576762</v>
+        <v>1.030318223319004</v>
       </c>
       <c r="J12">
-        <v>0.9759573626035133</v>
+        <v>1.029766340790519</v>
       </c>
       <c r="K12">
-        <v>0.9909727589689792</v>
+        <v>1.030867231346013</v>
       </c>
       <c r="L12">
-        <v>0.9746856764700418</v>
+        <v>1.027361012803858</v>
       </c>
       <c r="M12">
-        <v>0.9678839812208657</v>
+        <v>1.034980463910072</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9440443484293548</v>
+        <v>1.023103501161422</v>
       </c>
       <c r="D13">
-        <v>0.9757052333440498</v>
+        <v>1.027279102499817</v>
       </c>
       <c r="E13">
-        <v>0.9591225593103296</v>
+        <v>1.023770092305442</v>
       </c>
       <c r="F13">
-        <v>0.9522708962809128</v>
+        <v>1.031435468053407</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024627935686378</v>
+        <v>1.03033586748089</v>
       </c>
       <c r="J13">
-        <v>0.9763191976874348</v>
+        <v>1.029826321478956</v>
       </c>
       <c r="K13">
-        <v>0.9912675129813385</v>
+        <v>1.030914518995698</v>
       </c>
       <c r="L13">
-        <v>0.9750303369019565</v>
+        <v>1.027418954172862</v>
       </c>
       <c r="M13">
-        <v>0.9683260930780698</v>
+        <v>1.035055089903407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9456360724659163</v>
+        <v>1.023362541474316</v>
       </c>
       <c r="D14">
-        <v>0.9768382725770662</v>
+        <v>1.027466604159089</v>
       </c>
       <c r="E14">
-        <v>0.9604269300902059</v>
+        <v>1.023992779612659</v>
       </c>
       <c r="F14">
-        <v>0.953901961984128</v>
+        <v>1.031712731036809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02508077647828</v>
+        <v>1.030393613252647</v>
       </c>
       <c r="J14">
-        <v>0.9774985701507227</v>
+        <v>1.030022786224098</v>
       </c>
       <c r="K14">
-        <v>0.9922281774271405</v>
+        <v>1.031069389738522</v>
       </c>
       <c r="L14">
-        <v>0.9761538294040046</v>
+        <v>1.027608745230884</v>
       </c>
       <c r="M14">
-        <v>0.9697671174816602</v>
+        <v>1.03529953988813</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9466104718429889</v>
+        <v>1.023522100792903</v>
       </c>
       <c r="D15">
-        <v>0.9775321297064479</v>
+        <v>1.02758209013281</v>
       </c>
       <c r="E15">
-        <v>0.9612257392910598</v>
+        <v>1.024129952971578</v>
       </c>
       <c r="F15">
-        <v>0.9549005708954754</v>
+        <v>1.031883521103053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025357736004643</v>
+        <v>1.030429141368905</v>
       </c>
       <c r="J15">
-        <v>0.9782205330671931</v>
+        <v>1.030143783915054</v>
       </c>
       <c r="K15">
-        <v>0.9928162072152763</v>
+        <v>1.031164756657562</v>
       </c>
       <c r="L15">
-        <v>0.9768416603110645</v>
+        <v>1.027725637382841</v>
       </c>
       <c r="M15">
-        <v>0.9706492521776693</v>
+        <v>1.035450102000655</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9521890335854242</v>
+        <v>1.02445014069788</v>
       </c>
       <c r="D16">
-        <v>0.9815080881377497</v>
+        <v>1.028253662038787</v>
       </c>
       <c r="E16">
-        <v>0.965803639226489</v>
+        <v>1.024927883299134</v>
       </c>
       <c r="F16">
-        <v>0.9606196084829626</v>
+        <v>1.03287697764741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026939430695579</v>
+        <v>1.030635154009346</v>
       </c>
       <c r="J16">
-        <v>0.9823536137958834</v>
+        <v>1.030847273436553</v>
       </c>
       <c r="K16">
-        <v>0.996181757504999</v>
+        <v>1.03171901191154</v>
       </c>
       <c r="L16">
-        <v>0.9807804566615456</v>
+        <v>1.028405327340489</v>
       </c>
       <c r="M16">
-        <v>0.9756993574580776</v>
+        <v>1.036325657699176</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9556101774134598</v>
+        <v>1.0250316981533</v>
       </c>
       <c r="D17">
-        <v>0.9839492800298509</v>
+        <v>1.028674391807863</v>
       </c>
       <c r="E17">
-        <v>0.9686149672118085</v>
+        <v>1.025427988626992</v>
       </c>
       <c r="F17">
-        <v>0.9641285141738419</v>
+        <v>1.033499612891701</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027905883719565</v>
+        <v>1.030763698410493</v>
       </c>
       <c r="J17">
-        <v>0.9848879541322976</v>
+        <v>1.031287881795539</v>
       </c>
       <c r="K17">
-        <v>0.9982447136881385</v>
+        <v>1.032065962390351</v>
       </c>
       <c r="L17">
-        <v>0.98319661627864</v>
+        <v>1.028831091423682</v>
       </c>
       <c r="M17">
-        <v>0.9787961582581881</v>
+        <v>1.0368741903283</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9575788778004419</v>
+        <v>1.025370705668897</v>
       </c>
       <c r="D18">
-        <v>0.98535501353832</v>
+        <v>1.028919607302782</v>
       </c>
       <c r="E18">
-        <v>0.9702340665499255</v>
+        <v>1.025719544157829</v>
       </c>
       <c r="F18">
-        <v>0.9661482869992807</v>
+        <v>1.033862596375861</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028460715368624</v>
+        <v>1.030838431186671</v>
       </c>
       <c r="J18">
-        <v>0.9863461756302389</v>
+        <v>1.031544641195683</v>
       </c>
       <c r="K18">
-        <v>0.9994314193001091</v>
+        <v>1.032268075230538</v>
       </c>
       <c r="L18">
-        <v>0.9845871716690744</v>
+        <v>1.029079222732322</v>
       </c>
       <c r="M18">
-        <v>0.980578100425672</v>
+        <v>1.037193897872349</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9582457313370636</v>
+        <v>1.025486263961713</v>
       </c>
       <c r="D19">
-        <v>0.9858313275470919</v>
+        <v>1.029003187547872</v>
       </c>
       <c r="E19">
-        <v>0.9707827178493775</v>
+        <v>1.025818932257436</v>
       </c>
       <c r="F19">
-        <v>0.9668325359093124</v>
+        <v>1.03398633259034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02864842573085</v>
+        <v>1.03086387164562</v>
       </c>
       <c r="J19">
-        <v>0.9868400833673534</v>
+        <v>1.031632149012392</v>
       </c>
       <c r="K19">
-        <v>0.9998333123374358</v>
+        <v>1.032336946966356</v>
       </c>
       <c r="L19">
-        <v>0.9850582162607022</v>
+        <v>1.02916379372198</v>
       </c>
       <c r="M19">
-        <v>0.9811816723345048</v>
+        <v>1.037302869065345</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9552459221079701</v>
+        <v>1.024969323825083</v>
       </c>
       <c r="D20">
-        <v>0.9836892615958274</v>
+        <v>1.028629271080999</v>
       </c>
       <c r="E20">
-        <v>0.968315501542175</v>
+        <v>1.025374347359255</v>
       </c>
       <c r="F20">
-        <v>0.9637548552367313</v>
+        <v>1.033432829657383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027803119569375</v>
+        <v>1.030749932170865</v>
       </c>
       <c r="J20">
-        <v>0.9846181347563254</v>
+        <v>1.031240633562287</v>
       </c>
       <c r="K20">
-        <v>0.9980251099386156</v>
+        <v>1.032028764560327</v>
       </c>
       <c r="L20">
-        <v>0.9829393442015411</v>
+        <v>1.028785432700837</v>
       </c>
       <c r="M20">
-        <v>0.978466447787292</v>
+        <v>1.036815363092185</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9451686736184525</v>
+        <v>1.023286269734947</v>
       </c>
       <c r="D21">
-        <v>0.9765055107836209</v>
+        <v>1.027411397934027</v>
       </c>
       <c r="E21">
-        <v>0.9600438437008875</v>
+        <v>1.023927210355002</v>
       </c>
       <c r="F21">
-        <v>0.9534229843457388</v>
+        <v>1.03163109251852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024947855773719</v>
+        <v>1.03037661918241</v>
       </c>
       <c r="J21">
-        <v>0.9771522570707349</v>
+        <v>1.029964942832469</v>
       </c>
       <c r="K21">
-        <v>0.991946096313949</v>
+        <v>1.031023795435649</v>
       </c>
       <c r="L21">
-        <v>0.9758239092027935</v>
+        <v>1.027552865752172</v>
       </c>
       <c r="M21">
-        <v>0.969343972808611</v>
+        <v>1.035227566224446</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9385605219095828</v>
+        <v>1.022226154661402</v>
       </c>
       <c r="D22">
-        <v>0.9718056434192083</v>
+        <v>1.02664393131335</v>
       </c>
       <c r="E22">
-        <v>0.9546336895844543</v>
+        <v>1.023015961968546</v>
       </c>
       <c r="F22">
-        <v>0.9466534508696932</v>
+        <v>1.030496495272163</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023064076364423</v>
+        <v>1.030139679348135</v>
       </c>
       <c r="J22">
-        <v>0.9722559947854036</v>
+        <v>1.029160656287495</v>
       </c>
       <c r="K22">
-        <v>0.9879571198255994</v>
+        <v>1.030389575451595</v>
       </c>
       <c r="L22">
-        <v>0.9711608114909217</v>
+        <v>1.026775969272901</v>
       </c>
       <c r="M22">
-        <v>0.9633613425902509</v>
+        <v>1.034227010102582</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9420910559842137</v>
+        <v>1.022788326103571</v>
       </c>
       <c r="D23">
-        <v>0.9743155186165356</v>
+        <v>1.027050946818111</v>
       </c>
       <c r="E23">
-        <v>0.9575227771141744</v>
+        <v>1.023499164717172</v>
       </c>
       <c r="F23">
-        <v>0.9502696708919492</v>
+        <v>1.031098138255298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02407154783421</v>
+        <v>1.030265497142941</v>
       </c>
       <c r="J23">
-        <v>0.9748719125041039</v>
+        <v>1.029587235492507</v>
       </c>
       <c r="K23">
-        <v>0.9900884901353243</v>
+        <v>1.030726012548531</v>
       </c>
       <c r="L23">
-        <v>0.9736518332826277</v>
+        <v>1.027188002124972</v>
       </c>
       <c r="M23">
-        <v>0.9665577069441267</v>
+        <v>1.034757639707309</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9554105958833381</v>
+        <v>1.024997508733108</v>
       </c>
       <c r="D24">
-        <v>0.9838068086884425</v>
+        <v>1.028649659779711</v>
       </c>
       <c r="E24">
-        <v>0.9684508809191357</v>
+        <v>1.025398585995032</v>
       </c>
       <c r="F24">
-        <v>0.963923778469449</v>
+        <v>1.033463006710883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027849581630373</v>
+        <v>1.030756153299114</v>
       </c>
       <c r="J24">
-        <v>0.9847401161458211</v>
+        <v>1.031261983746907</v>
       </c>
       <c r="K24">
-        <v>0.9981243904800442</v>
+        <v>1.032045573454416</v>
       </c>
       <c r="L24">
-        <v>0.9830556521070983</v>
+        <v>1.02880606456043</v>
       </c>
       <c r="M24">
-        <v>0.9786155047782961</v>
+        <v>1.036841945336743</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9698267186645483</v>
+        <v>1.027553128538658</v>
       </c>
       <c r="D25">
-        <v>0.9941148691020787</v>
+        <v>1.030497479767422</v>
       </c>
       <c r="E25">
-        <v>0.9803283072144413</v>
+        <v>1.027596998509573</v>
       </c>
       <c r="F25">
-        <v>0.978723621779559</v>
+        <v>1.036199921239623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031888257650563</v>
+        <v>1.031315929619931</v>
       </c>
       <c r="J25">
-        <v>0.9954140221394998</v>
+        <v>1.033196044668069</v>
       </c>
       <c r="K25">
-        <v>1.006805236346688</v>
+        <v>1.033566767144221</v>
       </c>
       <c r="L25">
-        <v>0.9932398751264619</v>
+        <v>1.03067553263467</v>
       </c>
       <c r="M25">
-        <v>0.9916614569038199</v>
+        <v>1.039251194214634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_242/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029585357532213</v>
+        <v>0.9806184273800028</v>
       </c>
       <c r="D2">
-        <v>1.031965529203292</v>
+        <v>1.001851338113746</v>
       </c>
       <c r="E2">
-        <v>1.02934604942493</v>
+        <v>0.9892525085014698</v>
       </c>
       <c r="F2">
-        <v>1.038377287140346</v>
+        <v>0.9898187617707783</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031754744203483</v>
+        <v>1.034867722879341</v>
       </c>
       <c r="J2">
-        <v>1.034731317919554</v>
+        <v>1.00339470583605</v>
       </c>
       <c r="K2">
-        <v>1.034772123665848</v>
+        <v>1.013284940972598</v>
       </c>
       <c r="L2">
-        <v>1.032160227836086</v>
+        <v>1.000863631814649</v>
       </c>
       <c r="M2">
-        <v>1.041165493558144</v>
+        <v>1.001421783694112</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0310575500719</v>
+        <v>0.9880986650389847</v>
       </c>
       <c r="D3">
-        <v>1.033028217522837</v>
+        <v>1.007221969265681</v>
       </c>
       <c r="E3">
-        <v>1.030613589053388</v>
+        <v>0.9954545664839107</v>
       </c>
       <c r="F3">
-        <v>1.039955187531475</v>
+        <v>0.9975182318720957</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032068959609567</v>
+        <v>1.036906025223386</v>
       </c>
       <c r="J3">
-        <v>1.035841933759487</v>
+        <v>1.00891911567919</v>
       </c>
       <c r="K3">
-        <v>1.035642805629568</v>
+        <v>1.017763270149823</v>
       </c>
       <c r="L3">
-        <v>1.033234656961156</v>
+        <v>1.006145939271016</v>
       </c>
       <c r="M3">
-        <v>1.042551367157641</v>
+        <v>1.008182966184049</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0320086449775</v>
+        <v>0.9927897344013199</v>
       </c>
       <c r="D4">
-        <v>1.033714378219901</v>
+        <v>1.010592811236563</v>
       </c>
       <c r="E4">
-        <v>1.03143268954541</v>
+        <v>0.9993508000560941</v>
       </c>
       <c r="F4">
-        <v>1.040974837827389</v>
+        <v>1.002350784201069</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032270253801178</v>
+        <v>1.038171380741897</v>
       </c>
       <c r="J4">
-        <v>1.036558705696557</v>
+        <v>1.012379695280196</v>
       </c>
       <c r="K4">
-        <v>1.036204136795907</v>
+        <v>1.020565049610097</v>
       </c>
       <c r="L4">
-        <v>1.033928259641451</v>
+        <v>1.009457066669288</v>
       </c>
       <c r="M4">
-        <v>1.043446286430386</v>
+        <v>1.012420919889056</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03240813086359</v>
+        <v>0.9947282105120584</v>
       </c>
       <c r="D5">
-        <v>1.034002492719051</v>
+        <v>1.011986262795335</v>
       </c>
       <c r="E5">
-        <v>1.031776785811581</v>
+        <v>1.000962342640739</v>
       </c>
       <c r="F5">
-        <v>1.041403182251292</v>
+        <v>1.004348667361202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032354395086768</v>
+        <v>1.038691090242213</v>
       </c>
       <c r="J5">
-        <v>1.036859594230037</v>
+        <v>1.013808683336634</v>
       </c>
       <c r="K5">
-        <v>1.036439631829919</v>
+        <v>1.021721117500139</v>
       </c>
       <c r="L5">
-        <v>1.034219466319082</v>
+        <v>1.010824857892121</v>
       </c>
       <c r="M5">
-        <v>1.043822078907443</v>
+        <v>1.014171599183</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032475185738517</v>
+        <v>0.9950517724235246</v>
       </c>
       <c r="D6">
-        <v>1.034050848163149</v>
+        <v>1.012218878961036</v>
       </c>
       <c r="E6">
-        <v>1.031834546379264</v>
+        <v>1.001231420391854</v>
       </c>
       <c r="F6">
-        <v>1.04147508484053</v>
+        <v>1.004682200217574</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032368494519753</v>
+        <v>1.038777649502972</v>
       </c>
       <c r="J6">
-        <v>1.036910088955411</v>
+        <v>1.014047141927551</v>
       </c>
       <c r="K6">
-        <v>1.036479143951878</v>
+        <v>1.021913980508243</v>
       </c>
       <c r="L6">
-        <v>1.034268338837552</v>
+        <v>1.011053134503287</v>
       </c>
       <c r="M6">
-        <v>1.043885151023347</v>
+        <v>1.014463781118362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032013984310681</v>
+        <v>0.9928157660476795</v>
       </c>
       <c r="D7">
-        <v>1.033718229379803</v>
+        <v>1.010611521867831</v>
       </c>
       <c r="E7">
-        <v>1.031437288366107</v>
+        <v>0.9993724354762747</v>
       </c>
       <c r="F7">
-        <v>1.040980562620215</v>
+        <v>1.002377609909597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032271379995987</v>
+        <v>1.038178372517291</v>
       </c>
       <c r="J7">
-        <v>1.0365627279154</v>
+        <v>1.012398889167723</v>
       </c>
       <c r="K7">
-        <v>1.036207285406767</v>
+        <v>1.020580581217224</v>
       </c>
       <c r="L7">
-        <v>1.033932152261473</v>
+        <v>1.009475436540848</v>
       </c>
       <c r="M7">
-        <v>1.043451309474577</v>
+        <v>1.01244443187738</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030083209567404</v>
+        <v>0.9831785867969408</v>
       </c>
       <c r="D8">
-        <v>1.032324976662308</v>
+        <v>1.003688800536309</v>
       </c>
       <c r="E8">
-        <v>1.029774647846904</v>
+        <v>0.9913737103036407</v>
       </c>
       <c r="F8">
-        <v>1.038910831874038</v>
+        <v>0.992453100339356</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031861354981383</v>
+        <v>1.03556803078695</v>
       </c>
       <c r="J8">
-        <v>1.035107046407274</v>
+        <v>1.00528625549424</v>
       </c>
       <c r="K8">
-        <v>1.035066803412009</v>
+        <v>1.014819035451085</v>
       </c>
       <c r="L8">
-        <v>1.032523675692274</v>
+        <v>1.002671812103989</v>
       </c>
       <c r="M8">
-        <v>1.041634240150849</v>
+        <v>1.003736279018434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026669015588568</v>
+        <v>0.9649513104795965</v>
       </c>
       <c r="D9">
-        <v>1.029858433108188</v>
+        <v>0.9906250565811179</v>
       </c>
       <c r="E9">
-        <v>1.026836323082767</v>
+        <v>0.9763057831224239</v>
       </c>
       <c r="F9">
-        <v>1.035252939656885</v>
+        <v>0.9737157890771579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031123254302931</v>
+        <v>1.030529184871676</v>
       </c>
       <c r="J9">
-        <v>1.032527375057895</v>
+        <v>0.9918054714768821</v>
       </c>
       <c r="K9">
-        <v>1.033041176492793</v>
+        <v>1.003872089289185</v>
       </c>
       <c r="L9">
-        <v>1.030029086613864</v>
+        <v>0.989795347788769</v>
       </c>
       <c r="M9">
-        <v>1.038417956368884</v>
+        <v>0.9872502076629396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02438439114048</v>
+        <v>0.9517986895398565</v>
       </c>
       <c r="D10">
-        <v>1.028206089816871</v>
+        <v>0.981229690143002</v>
       </c>
       <c r="E10">
-        <v>1.024871346474502</v>
+        <v>0.9654830592591406</v>
       </c>
       <c r="F10">
-        <v>1.032806588049648</v>
+        <v>0.9602193298625463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030620594051656</v>
+        <v>1.026828983407043</v>
       </c>
       <c r="J10">
-        <v>1.030797447820595</v>
+        <v>0.9820644321871066</v>
       </c>
       <c r="K10">
-        <v>1.031679768205416</v>
+        <v>0.9959463252094556</v>
       </c>
       <c r="L10">
-        <v>1.028357183384409</v>
+        <v>0.9805048064209273</v>
       </c>
       <c r="M10">
-        <v>1.036263635243923</v>
+        <v>0.9753460059865576</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023393001303178</v>
+        <v>0.945822438694337</v>
       </c>
       <c r="D11">
-        <v>1.027488650881246</v>
+        <v>0.9769709670099957</v>
       </c>
       <c r="E11">
-        <v>1.024018965605556</v>
+        <v>0.9605796938381793</v>
       </c>
       <c r="F11">
-        <v>1.03174533444322</v>
+        <v>0.9540929511701295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030400397988559</v>
+        <v>1.025133763615727</v>
       </c>
       <c r="J11">
-        <v>1.030045885674649</v>
+        <v>0.9776366553302667</v>
       </c>
       <c r="K11">
-        <v>1.031087596895345</v>
+        <v>0.9923406490333778</v>
       </c>
       <c r="L11">
-        <v>1.027631060628078</v>
+        <v>0.9762853819369971</v>
       </c>
       <c r="M11">
-        <v>1.035328282748688</v>
+        <v>0.9699358376481748</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023024425284482</v>
+        <v>0.9435560058059298</v>
       </c>
       <c r="D12">
-        <v>1.02722186160669</v>
+        <v>0.975357717925176</v>
       </c>
       <c r="E12">
-        <v>1.023702116182853</v>
+        <v>0.9587225063731565</v>
       </c>
       <c r="F12">
-        <v>1.031350831929353</v>
+        <v>0.9517705344130197</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030318223319004</v>
+        <v>1.024488902576761</v>
       </c>
       <c r="J12">
-        <v>1.029766340790519</v>
+        <v>0.9759573626035117</v>
       </c>
       <c r="K12">
-        <v>1.030867231346013</v>
+        <v>0.990972758968978</v>
       </c>
       <c r="L12">
-        <v>1.027361012803858</v>
+        <v>0.9746856764700403</v>
       </c>
       <c r="M12">
-        <v>1.034980463910072</v>
+        <v>0.9678839812208643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023103501161422</v>
+        <v>0.9440443484293538</v>
       </c>
       <c r="D13">
-        <v>1.027279102499817</v>
+        <v>0.9757052333440487</v>
       </c>
       <c r="E13">
-        <v>1.023770092305442</v>
+        <v>0.9591225593103287</v>
       </c>
       <c r="F13">
-        <v>1.031435468053407</v>
+        <v>0.9522708962809118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03033586748089</v>
+        <v>1.024627935686378</v>
       </c>
       <c r="J13">
-        <v>1.029826321478956</v>
+        <v>0.9763191976874338</v>
       </c>
       <c r="K13">
-        <v>1.030914518995698</v>
+        <v>0.9912675129813375</v>
       </c>
       <c r="L13">
-        <v>1.027418954172862</v>
+        <v>0.9750303369019556</v>
       </c>
       <c r="M13">
-        <v>1.035055089903407</v>
+        <v>0.9683260930780688</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023362541474316</v>
+        <v>0.9456360724659164</v>
       </c>
       <c r="D14">
-        <v>1.027466604159089</v>
+        <v>0.9768382725770665</v>
       </c>
       <c r="E14">
-        <v>1.023992779612659</v>
+        <v>0.9604269300902057</v>
       </c>
       <c r="F14">
-        <v>1.031712731036809</v>
+        <v>0.9539019619841279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030393613252647</v>
+        <v>1.02508077647828</v>
       </c>
       <c r="J14">
-        <v>1.030022786224098</v>
+        <v>0.9774985701507231</v>
       </c>
       <c r="K14">
-        <v>1.031069389738522</v>
+        <v>0.9922281774271406</v>
       </c>
       <c r="L14">
-        <v>1.027608745230884</v>
+        <v>0.9761538294040046</v>
       </c>
       <c r="M14">
-        <v>1.03529953988813</v>
+        <v>0.9697671174816602</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023522100792903</v>
+        <v>0.9466104718429897</v>
       </c>
       <c r="D15">
-        <v>1.02758209013281</v>
+        <v>0.9775321297064486</v>
       </c>
       <c r="E15">
-        <v>1.024129952971578</v>
+        <v>0.9612257392910607</v>
       </c>
       <c r="F15">
-        <v>1.031883521103053</v>
+        <v>0.9549005708954762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030429141368905</v>
+        <v>1.025357736004643</v>
       </c>
       <c r="J15">
-        <v>1.030143783915054</v>
+        <v>0.9782205330671941</v>
       </c>
       <c r="K15">
-        <v>1.031164756657562</v>
+        <v>0.9928162072152771</v>
       </c>
       <c r="L15">
-        <v>1.027725637382841</v>
+        <v>0.9768416603110652</v>
       </c>
       <c r="M15">
-        <v>1.035450102000655</v>
+        <v>0.9706492521776698</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02445014069788</v>
+        <v>0.9521890335854227</v>
       </c>
       <c r="D16">
-        <v>1.028253662038787</v>
+        <v>0.9815080881377487</v>
       </c>
       <c r="E16">
-        <v>1.024927883299134</v>
+        <v>0.965803639226488</v>
       </c>
       <c r="F16">
-        <v>1.03287697764741</v>
+        <v>0.9606196084829614</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030635154009346</v>
+        <v>1.026939430695578</v>
       </c>
       <c r="J16">
-        <v>1.030847273436553</v>
+        <v>0.982353613795882</v>
       </c>
       <c r="K16">
-        <v>1.03171901191154</v>
+        <v>0.9961817575049979</v>
       </c>
       <c r="L16">
-        <v>1.028405327340489</v>
+        <v>0.9807804566615446</v>
       </c>
       <c r="M16">
-        <v>1.036325657699176</v>
+        <v>0.9756993574580761</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0250316981533</v>
+        <v>0.9556101774134593</v>
       </c>
       <c r="D17">
-        <v>1.028674391807863</v>
+        <v>0.9839492800298502</v>
       </c>
       <c r="E17">
-        <v>1.025427988626992</v>
+        <v>0.9686149672118083</v>
       </c>
       <c r="F17">
-        <v>1.033499612891701</v>
+        <v>0.9641285141738417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030763698410493</v>
+        <v>1.027905883719565</v>
       </c>
       <c r="J17">
-        <v>1.031287881795539</v>
+        <v>0.9848879541322971</v>
       </c>
       <c r="K17">
-        <v>1.032065962390351</v>
+        <v>0.9982447136881381</v>
       </c>
       <c r="L17">
-        <v>1.028831091423682</v>
+        <v>0.9831966162786396</v>
       </c>
       <c r="M17">
-        <v>1.0368741903283</v>
+        <v>0.9787961582581883</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025370705668897</v>
+        <v>0.9575788778004386</v>
       </c>
       <c r="D18">
-        <v>1.028919607302782</v>
+        <v>0.9853550135383173</v>
       </c>
       <c r="E18">
-        <v>1.025719544157829</v>
+        <v>0.9702340665499222</v>
       </c>
       <c r="F18">
-        <v>1.033862596375861</v>
+        <v>0.9661482869992778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030838431186671</v>
+        <v>1.028460715368622</v>
       </c>
       <c r="J18">
-        <v>1.031544641195683</v>
+        <v>0.9863461756302355</v>
       </c>
       <c r="K18">
-        <v>1.032268075230538</v>
+        <v>0.9994314193001063</v>
       </c>
       <c r="L18">
-        <v>1.029079222732322</v>
+        <v>0.9845871716690714</v>
       </c>
       <c r="M18">
-        <v>1.037193897872349</v>
+        <v>0.9805781004256692</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025486263961713</v>
+        <v>0.9582457313370634</v>
       </c>
       <c r="D19">
-        <v>1.029003187547872</v>
+        <v>0.9858313275470917</v>
       </c>
       <c r="E19">
-        <v>1.025818932257436</v>
+        <v>0.9707827178493771</v>
       </c>
       <c r="F19">
-        <v>1.03398633259034</v>
+        <v>0.9668325359093124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03086387164562</v>
+        <v>1.02864842573085</v>
       </c>
       <c r="J19">
-        <v>1.031632149012392</v>
+        <v>0.9868400833673532</v>
       </c>
       <c r="K19">
-        <v>1.032336946966356</v>
+        <v>0.9998333123374356</v>
       </c>
       <c r="L19">
-        <v>1.02916379372198</v>
+        <v>0.9850582162607021</v>
       </c>
       <c r="M19">
-        <v>1.037302869065345</v>
+        <v>0.9811816723345047</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024969323825083</v>
+        <v>0.9552459221079691</v>
       </c>
       <c r="D20">
-        <v>1.028629271080999</v>
+        <v>0.9836892615958268</v>
       </c>
       <c r="E20">
-        <v>1.025374347359255</v>
+        <v>0.9683155015421741</v>
       </c>
       <c r="F20">
-        <v>1.033432829657383</v>
+        <v>0.9637548552367305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030749932170865</v>
+        <v>1.027803119569375</v>
       </c>
       <c r="J20">
-        <v>1.031240633562287</v>
+        <v>0.9846181347563243</v>
       </c>
       <c r="K20">
-        <v>1.032028764560327</v>
+        <v>0.9980251099386148</v>
       </c>
       <c r="L20">
-        <v>1.028785432700837</v>
+        <v>0.9829393442015399</v>
       </c>
       <c r="M20">
-        <v>1.036815363092185</v>
+        <v>0.978466447787291</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023286269734947</v>
+        <v>0.945168673618452</v>
       </c>
       <c r="D21">
-        <v>1.027411397934027</v>
+        <v>0.9765055107836207</v>
       </c>
       <c r="E21">
-        <v>1.023927210355002</v>
+        <v>0.9600438437008868</v>
       </c>
       <c r="F21">
-        <v>1.03163109251852</v>
+        <v>0.953422984345738</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03037661918241</v>
+        <v>1.024947855773719</v>
       </c>
       <c r="J21">
-        <v>1.029964942832469</v>
+        <v>0.9771522570707344</v>
       </c>
       <c r="K21">
-        <v>1.031023795435649</v>
+        <v>0.9919460963139488</v>
       </c>
       <c r="L21">
-        <v>1.027552865752172</v>
+        <v>0.9758239092027932</v>
       </c>
       <c r="M21">
-        <v>1.035227566224446</v>
+        <v>0.9693439728086103</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022226154661402</v>
+        <v>0.9385605219095828</v>
       </c>
       <c r="D22">
-        <v>1.02664393131335</v>
+        <v>0.9718056434192083</v>
       </c>
       <c r="E22">
-        <v>1.023015961968546</v>
+        <v>0.954633689584454</v>
       </c>
       <c r="F22">
-        <v>1.030496495272163</v>
+        <v>0.946653450869693</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030139679348135</v>
+        <v>1.023064076364423</v>
       </c>
       <c r="J22">
-        <v>1.029160656287495</v>
+        <v>0.9722559947854038</v>
       </c>
       <c r="K22">
-        <v>1.030389575451595</v>
+        <v>0.9879571198255994</v>
       </c>
       <c r="L22">
-        <v>1.026775969272901</v>
+        <v>0.9711608114909217</v>
       </c>
       <c r="M22">
-        <v>1.034227010102582</v>
+        <v>0.9633613425902509</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022788326103571</v>
+        <v>0.9420910559842134</v>
       </c>
       <c r="D23">
-        <v>1.027050946818111</v>
+        <v>0.9743155186165353</v>
       </c>
       <c r="E23">
-        <v>1.023499164717172</v>
+        <v>0.9575227771141743</v>
       </c>
       <c r="F23">
-        <v>1.031098138255298</v>
+        <v>0.9502696708919492</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030265497142941</v>
+        <v>1.024071547834209</v>
       </c>
       <c r="J23">
-        <v>1.029587235492507</v>
+        <v>0.9748719125041035</v>
       </c>
       <c r="K23">
-        <v>1.030726012548531</v>
+        <v>0.9900884901353239</v>
       </c>
       <c r="L23">
-        <v>1.027188002124972</v>
+        <v>0.9736518332826276</v>
       </c>
       <c r="M23">
-        <v>1.034757639707309</v>
+        <v>0.9665577069441265</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024997508733108</v>
+        <v>0.9554105958833382</v>
       </c>
       <c r="D24">
-        <v>1.028649659779711</v>
+        <v>0.9838068086884424</v>
       </c>
       <c r="E24">
-        <v>1.025398585995032</v>
+        <v>0.9684508809191353</v>
       </c>
       <c r="F24">
-        <v>1.033463006710883</v>
+        <v>0.9639237784694484</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030756153299114</v>
+        <v>1.027849581630373</v>
       </c>
       <c r="J24">
-        <v>1.031261983746907</v>
+        <v>0.9847401161458211</v>
       </c>
       <c r="K24">
-        <v>1.032045573454416</v>
+        <v>0.998124390480044</v>
       </c>
       <c r="L24">
-        <v>1.02880606456043</v>
+        <v>0.9830556521070982</v>
       </c>
       <c r="M24">
-        <v>1.036841945336743</v>
+        <v>0.9786155047782955</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027553128538658</v>
+        <v>0.9698267186645481</v>
       </c>
       <c r="D25">
-        <v>1.030497479767422</v>
+        <v>0.9941148691020786</v>
       </c>
       <c r="E25">
-        <v>1.027596998509573</v>
+        <v>0.9803283072144411</v>
       </c>
       <c r="F25">
-        <v>1.036199921239623</v>
+        <v>0.978723621779559</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031315929619931</v>
+        <v>1.031888257650563</v>
       </c>
       <c r="J25">
-        <v>1.033196044668069</v>
+        <v>0.9954140221394997</v>
       </c>
       <c r="K25">
-        <v>1.033566767144221</v>
+        <v>1.006805236346688</v>
       </c>
       <c r="L25">
-        <v>1.03067553263467</v>
+        <v>0.9932398751264618</v>
       </c>
       <c r="M25">
-        <v>1.039251194214634</v>
+        <v>0.99166145690382</v>
       </c>
     </row>
   </sheetData>
